--- a/python/resultados_ag.xlsx
+++ b/python/resultados_ag.xlsx
@@ -455,11 +455,11 @@
         <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'R': 8, 'M': 1, 'O': 0, 'E': 4, 'D': 6, 'N': 5, 'S': 9, 'Y': 2}</t>
+          <t>{'N': 7, 'D': 5, 'Y': 2, 'M': 1, 'S': 9, 'E': 6, 'R': 8, 'O': 0}</t>
         </is>
       </c>
     </row>

--- a/python/resultados_ag.xlsx
+++ b/python/resultados_ag.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'N': 7, 'D': 5, 'Y': 2, 'M': 1, 'S': 9, 'E': 6, 'R': 8, 'O': 0}</t>
+          <t>{'Y': 3, 'D': 7, 'R': 8, 'M': 1, 'O': 0, 'S': 9, 'E': 5, 'N': 6}</t>
         </is>
       </c>
     </row>

--- a/python/resultados_ag.xlsx
+++ b/python/resultados_ag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>tempo_medio</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>configuracao</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -501,10 +506,15 @@
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04490461349487305</v>
+        <v>0.04275131225585938</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -533,10 +543,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03734171390533447</v>
+        <v>0.03719453811645508</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -562,13 +577,18 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04729137420654297</v>
+        <v>0.0429797887802124</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -594,13 +614,18 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03585076332092285</v>
+        <v>0.03247065544128418</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -626,13 +651,18 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03941299915313721</v>
+        <v>0.04214346408843994</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -658,13 +688,18 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03275790214538574</v>
+        <v>0.03026523590087891</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -690,13 +725,18 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03213338851928711</v>
+        <v>0.02966594696044922</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -725,10 +765,15 @@
         <v>0.4</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02441627979278565</v>
+        <v>0.02709479331970215</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -757,10 +802,15 @@
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04327530860900879</v>
+        <v>0.04941742420196533</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -786,13 +836,18 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>26</v>
-      </c>
       <c r="H11" t="n">
-        <v>0.03837392330169678</v>
+        <v>0.03305947780609131</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -821,10 +876,15 @@
         <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04629430770874023</v>
+        <v>0.04507369995117187</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -850,13 +910,18 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03599519729614258</v>
+        <v>0.03219435214996338</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -882,13 +947,18 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03963603973388672</v>
+        <v>0.03654398918151856</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -917,10 +987,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03313415050506592</v>
+        <v>0.03393678665161133</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -946,13 +1021,18 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03915159702301026</v>
+        <v>0.03768157958984375</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.6, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -981,10 +1061,15 @@
         <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02276949882507324</v>
+        <v>0.02366695404052734</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1010,13 +1095,18 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04893031120300293</v>
+        <v>0.0537302017211914</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1042,13 +1132,18 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03922841548919678</v>
+        <v>0.03636033535003662</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1074,13 +1169,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0376701831817627</v>
+        <v>0.05058586597442627</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1106,13 +1206,18 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03690330982208252</v>
+        <v>0.04114470481872558</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1141,10 +1246,15 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04275023937225342</v>
+        <v>0.04242799282073974</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1173,10 +1283,15 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03308360576629639</v>
+        <v>0.03342940807342529</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1202,13 +1317,18 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03192284107208252</v>
+        <v>0.03344221115112304</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1234,13 +1354,18 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03018229007720947</v>
+        <v>0.0251417875289917</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.05, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1266,13 +1391,18 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0430638074874878</v>
+        <v>0.03948130607604981</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1298,13 +1428,18 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03694941997528076</v>
+        <v>0.03906440734863281</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1330,13 +1465,18 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04287261962890625</v>
+        <v>0.04566540718078613</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1362,13 +1502,18 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03533103466033936</v>
+        <v>0.03138549327850342</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S1', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1394,13 +1539,18 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04330120086669922</v>
+        <v>0.03938059806823731</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1426,13 +1576,18 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03498358726501465</v>
+        <v>0.02855014801025391</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C1', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1458,13 +1613,18 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02692031860351562</v>
+        <v>0.02803893089294434</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R1'}</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1490,13 +1650,18 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02050631046295166</v>
+        <v>0.02771596908569336</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
+        </is>
       </c>
     </row>
   </sheetData>
